--- a/FCAP Workflow - Bulambuli 2.0 - FCAP Progress - Bulambuli Layering Questionnaire (created 2024-08-12) 2025-03-20.xlsx
+++ b/FCAP Workflow - Bulambuli 2.0 - FCAP Progress - Bulambuli Layering Questionnaire (created 2024-08-12) 2025-03-20.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\Github\Bulambuli-Quarterly-Health-Layering-report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6277E9D4-E87B-4AEA-8449-B91A8BE3A182}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DDFE665-40AD-491D-92F2-65A46677DC39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="0" windowWidth="9780" windowHeight="10170" firstSheet="7" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Forms" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="5" r:id="rId2"/>
+    <sheet name="HHs Surveyed" sheetId="5" r:id="rId2"/>
     <sheet name="Village Profile Form" sheetId="2" r:id="rId3"/>
     <sheet name="Indicator Defination" sheetId="3" r:id="rId4"/>
     <sheet name="Comparison Q1-25 and Q2-24 " sheetId="4" r:id="rId5"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4141" uniqueCount="1446">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4137" uniqueCount="1442">
   <si>
     <t>number</t>
   </si>
@@ -4311,18 +4311,6 @@
   </si>
   <si>
     <t>The percentage of households within the FCAP communities with functional handwashing facilities (HHs that practice hand washing).</t>
-  </si>
-  <si>
-    <t>Access to Safe Water</t>
-  </si>
-  <si>
-    <t>The percentage of households within the FCAP communities with access to safe drinking water.</t>
-  </si>
-  <si>
-    <t>Safe Water Storage Facilities</t>
-  </si>
-  <si>
-    <t>The percentage of households within the FCAP communities with safe water storage facilities.</t>
   </si>
   <si>
     <t>Dish Drying Rack</t>
@@ -4758,7 +4746,7 @@
   <dimension ref="A1:X174"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4797,7 +4785,7 @@
         <v>1174</v>
       </c>
       <c r="I1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
       <c r="J1" t="s">
         <v>1419</v>
@@ -4865,7 +4853,7 @@
         <v>14</v>
       </c>
       <c r="G2">
-        <f>VLOOKUP(D2,Sheet1!$A$1:$C$55,3,FALSE)</f>
+        <f>VLOOKUP(D2,'HHs Surveyed'!$A$1:$C$55,3,FALSE)</f>
         <v>51</v>
       </c>
       <c r="H2">
@@ -4942,7 +4930,7 @@
         <v>29</v>
       </c>
       <c r="G3">
-        <f>VLOOKUP(D3,Sheet1!$A$1:$C$55,3,FALSE)</f>
+        <f>VLOOKUP(D3,'HHs Surveyed'!$A$1:$C$55,3,FALSE)</f>
         <v>61</v>
       </c>
       <c r="H3">
@@ -5019,7 +5007,7 @@
         <v>29</v>
       </c>
       <c r="G4">
-        <f>VLOOKUP(D4,Sheet1!$A$1:$C$55,3,FALSE)</f>
+        <f>VLOOKUP(D4,'HHs Surveyed'!$A$1:$C$55,3,FALSE)</f>
         <v>57</v>
       </c>
       <c r="H4">
@@ -5096,7 +5084,7 @@
         <v>29</v>
       </c>
       <c r="G5">
-        <f>VLOOKUP(D5,Sheet1!$A$1:$C$55,3,FALSE)</f>
+        <f>VLOOKUP(D5,'HHs Surveyed'!$A$1:$C$55,3,FALSE)</f>
         <v>41</v>
       </c>
       <c r="H5">
@@ -5173,7 +5161,7 @@
         <v>29</v>
       </c>
       <c r="G6">
-        <f>VLOOKUP(D6,Sheet1!$A$1:$C$55,3,FALSE)</f>
+        <f>VLOOKUP(D6,'HHs Surveyed'!$A$1:$C$55,3,FALSE)</f>
         <v>62</v>
       </c>
       <c r="H6">
@@ -5250,7 +5238,7 @@
         <v>29</v>
       </c>
       <c r="G7">
-        <f>VLOOKUP(D7,Sheet1!$A$1:$C$55,3,FALSE)</f>
+        <f>VLOOKUP(D7,'HHs Surveyed'!$A$1:$C$55,3,FALSE)</f>
         <v>53</v>
       </c>
       <c r="H7">
@@ -5327,7 +5315,7 @@
         <v>29</v>
       </c>
       <c r="G8">
-        <f>VLOOKUP(D8,Sheet1!$A$1:$C$55,3,FALSE)</f>
+        <f>VLOOKUP(D8,'HHs Surveyed'!$A$1:$C$55,3,FALSE)</f>
         <v>66</v>
       </c>
       <c r="H8">
@@ -5404,7 +5392,7 @@
         <v>29</v>
       </c>
       <c r="G9">
-        <f>VLOOKUP(D9,Sheet1!$A$1:$C$55,3,FALSE)</f>
+        <f>VLOOKUP(D9,'HHs Surveyed'!$A$1:$C$55,3,FALSE)</f>
         <v>53</v>
       </c>
       <c r="H9">
@@ -5481,7 +5469,7 @@
         <v>29</v>
       </c>
       <c r="G10">
-        <f>VLOOKUP(D10,Sheet1!$A$1:$C$55,3,FALSE)</f>
+        <f>VLOOKUP(D10,'HHs Surveyed'!$A$1:$C$55,3,FALSE)</f>
         <v>58</v>
       </c>
       <c r="H10">
@@ -5558,7 +5546,7 @@
         <v>29</v>
       </c>
       <c r="G11">
-        <f>VLOOKUP(D11,Sheet1!$A$1:$C$55,3,FALSE)</f>
+        <f>VLOOKUP(D11,'HHs Surveyed'!$A$1:$C$55,3,FALSE)</f>
         <v>50</v>
       </c>
       <c r="H11">
@@ -5635,7 +5623,7 @@
         <v>29</v>
       </c>
       <c r="G12">
-        <f>VLOOKUP(D12,Sheet1!$A$1:$C$55,3,FALSE)</f>
+        <f>VLOOKUP(D12,'HHs Surveyed'!$A$1:$C$55,3,FALSE)</f>
         <v>56</v>
       </c>
       <c r="H12">
@@ -5712,7 +5700,7 @@
         <v>29</v>
       </c>
       <c r="G13">
-        <f>VLOOKUP(D13,Sheet1!$A$1:$C$55,3,FALSE)</f>
+        <f>VLOOKUP(D13,'HHs Surveyed'!$A$1:$C$55,3,FALSE)</f>
         <v>66</v>
       </c>
       <c r="H13">
@@ -5789,7 +5777,7 @@
         <v>29</v>
       </c>
       <c r="G14">
-        <f>VLOOKUP(D14,Sheet1!$A$1:$C$55,3,FALSE)</f>
+        <f>VLOOKUP(D14,'HHs Surveyed'!$A$1:$C$55,3,FALSE)</f>
         <v>51</v>
       </c>
       <c r="H14">
@@ -5866,7 +5854,7 @@
         <v>29</v>
       </c>
       <c r="G15">
-        <f>VLOOKUP(D15,Sheet1!$A$1:$C$55,3,FALSE)</f>
+        <f>VLOOKUP(D15,'HHs Surveyed'!$A$1:$C$55,3,FALSE)</f>
         <v>65</v>
       </c>
       <c r="H15">
@@ -5943,7 +5931,7 @@
         <v>29</v>
       </c>
       <c r="G16">
-        <f>VLOOKUP(D16,Sheet1!$A$1:$C$55,3,FALSE)</f>
+        <f>VLOOKUP(D16,'HHs Surveyed'!$A$1:$C$55,3,FALSE)</f>
         <v>58</v>
       </c>
       <c r="H16">
@@ -6020,7 +6008,7 @@
         <v>29</v>
       </c>
       <c r="G17">
-        <f>VLOOKUP(D17,Sheet1!$A$1:$C$55,3,FALSE)</f>
+        <f>VLOOKUP(D17,'HHs Surveyed'!$A$1:$C$55,3,FALSE)</f>
         <v>61</v>
       </c>
       <c r="H17">
@@ -6097,7 +6085,7 @@
         <v>29</v>
       </c>
       <c r="G18">
-        <f>VLOOKUP(D18,Sheet1!$A$1:$C$55,3,FALSE)</f>
+        <f>VLOOKUP(D18,'HHs Surveyed'!$A$1:$C$55,3,FALSE)</f>
         <v>53</v>
       </c>
       <c r="H18">
@@ -6174,7 +6162,7 @@
         <v>29</v>
       </c>
       <c r="G19">
-        <f>VLOOKUP(D19,Sheet1!$A$1:$C$55,3,FALSE)</f>
+        <f>VLOOKUP(D19,'HHs Surveyed'!$A$1:$C$55,3,FALSE)</f>
         <v>49</v>
       </c>
       <c r="H19">
@@ -6251,7 +6239,7 @@
         <v>29</v>
       </c>
       <c r="G20">
-        <f>VLOOKUP(D20,Sheet1!$A$1:$C$55,3,FALSE)</f>
+        <f>VLOOKUP(D20,'HHs Surveyed'!$A$1:$C$55,3,FALSE)</f>
         <v>81</v>
       </c>
       <c r="H20">
@@ -6328,7 +6316,7 @@
         <v>29</v>
       </c>
       <c r="G21">
-        <f>VLOOKUP(D21,Sheet1!$A$1:$C$55,3,FALSE)</f>
+        <f>VLOOKUP(D21,'HHs Surveyed'!$A$1:$C$55,3,FALSE)</f>
         <v>53</v>
       </c>
       <c r="H21">
@@ -6390,7 +6378,7 @@
         <v>29</v>
       </c>
       <c r="G22">
-        <f>VLOOKUP(D22,Sheet1!$A$1:$C$55,3,FALSE)</f>
+        <f>VLOOKUP(D22,'HHs Surveyed'!$A$1:$C$55,3,FALSE)</f>
         <v>64</v>
       </c>
       <c r="H22">
@@ -6467,7 +6455,7 @@
         <v>29</v>
       </c>
       <c r="G23">
-        <f>VLOOKUP(D23,Sheet1!$A$1:$C$55,3,FALSE)</f>
+        <f>VLOOKUP(D23,'HHs Surveyed'!$A$1:$C$55,3,FALSE)</f>
         <v>64</v>
       </c>
       <c r="H23">
@@ -6544,7 +6532,7 @@
         <v>29</v>
       </c>
       <c r="G24">
-        <f>VLOOKUP(D24,Sheet1!$A$1:$C$55,3,FALSE)</f>
+        <f>VLOOKUP(D24,'HHs Surveyed'!$A$1:$C$55,3,FALSE)</f>
         <v>29</v>
       </c>
       <c r="H24">
@@ -6621,7 +6609,7 @@
         <v>29</v>
       </c>
       <c r="G25">
-        <f>VLOOKUP(D25,Sheet1!$A$1:$C$55,3,FALSE)</f>
+        <f>VLOOKUP(D25,'HHs Surveyed'!$A$1:$C$55,3,FALSE)</f>
         <v>49</v>
       </c>
       <c r="H25">
@@ -6698,7 +6686,7 @@
         <v>29</v>
       </c>
       <c r="G26">
-        <f>VLOOKUP(D26,Sheet1!$A$1:$C$55,3,FALSE)</f>
+        <f>VLOOKUP(D26,'HHs Surveyed'!$A$1:$C$55,3,FALSE)</f>
         <v>56</v>
       </c>
       <c r="H26">
@@ -6775,7 +6763,7 @@
         <v>29</v>
       </c>
       <c r="G27">
-        <f>VLOOKUP(D27,Sheet1!$A$1:$C$55,3,FALSE)</f>
+        <f>VLOOKUP(D27,'HHs Surveyed'!$A$1:$C$55,3,FALSE)</f>
         <v>67</v>
       </c>
       <c r="H27">
@@ -6852,7 +6840,7 @@
         <v>29</v>
       </c>
       <c r="G28">
-        <f>VLOOKUP(D28,Sheet1!$A$1:$C$55,3,FALSE)</f>
+        <f>VLOOKUP(D28,'HHs Surveyed'!$A$1:$C$55,3,FALSE)</f>
         <v>48</v>
       </c>
       <c r="H28">
@@ -6929,7 +6917,7 @@
         <v>29</v>
       </c>
       <c r="G29">
-        <f>VLOOKUP(D29,Sheet1!$A$1:$C$55,3,FALSE)</f>
+        <f>VLOOKUP(D29,'HHs Surveyed'!$A$1:$C$55,3,FALSE)</f>
         <v>71</v>
       </c>
       <c r="H29">
@@ -7006,7 +6994,7 @@
         <v>29</v>
       </c>
       <c r="G30">
-        <f>VLOOKUP(D30,Sheet1!$A$1:$C$55,3,FALSE)</f>
+        <f>VLOOKUP(D30,'HHs Surveyed'!$A$1:$C$55,3,FALSE)</f>
         <v>57</v>
       </c>
       <c r="H30">
@@ -7068,7 +7056,7 @@
         <v>29</v>
       </c>
       <c r="G31">
-        <f>VLOOKUP(D31,Sheet1!$A$1:$C$55,3,FALSE)</f>
+        <f>VLOOKUP(D31,'HHs Surveyed'!$A$1:$C$55,3,FALSE)</f>
         <v>52</v>
       </c>
       <c r="H31">
@@ -7145,7 +7133,7 @@
         <v>29</v>
       </c>
       <c r="G32">
-        <f>VLOOKUP(D32,Sheet1!$A$1:$C$55,3,FALSE)</f>
+        <f>VLOOKUP(D32,'HHs Surveyed'!$A$1:$C$55,3,FALSE)</f>
         <v>76</v>
       </c>
       <c r="H32">
@@ -7222,7 +7210,7 @@
         <v>29</v>
       </c>
       <c r="G33">
-        <f>VLOOKUP(D33,Sheet1!$A$1:$C$55,3,FALSE)</f>
+        <f>VLOOKUP(D33,'HHs Surveyed'!$A$1:$C$55,3,FALSE)</f>
         <v>57</v>
       </c>
       <c r="H33">
@@ -7299,7 +7287,7 @@
         <v>29</v>
       </c>
       <c r="G34">
-        <f>VLOOKUP(D34,Sheet1!$A$1:$C$55,3,FALSE)</f>
+        <f>VLOOKUP(D34,'HHs Surveyed'!$A$1:$C$55,3,FALSE)</f>
         <v>41</v>
       </c>
       <c r="H34">
@@ -7376,7 +7364,7 @@
         <v>29</v>
       </c>
       <c r="G35">
-        <f>VLOOKUP(D35,Sheet1!$A$1:$C$55,3,FALSE)</f>
+        <f>VLOOKUP(D35,'HHs Surveyed'!$A$1:$C$55,3,FALSE)</f>
         <v>48</v>
       </c>
       <c r="H35">
@@ -7453,7 +7441,7 @@
         <v>29</v>
       </c>
       <c r="G36">
-        <f>VLOOKUP(D36,Sheet1!$A$1:$C$55,3,FALSE)</f>
+        <f>VLOOKUP(D36,'HHs Surveyed'!$A$1:$C$55,3,FALSE)</f>
         <v>71</v>
       </c>
       <c r="H36">
@@ -7530,7 +7518,7 @@
         <v>29</v>
       </c>
       <c r="G37">
-        <f>VLOOKUP(D37,Sheet1!$A$1:$C$55,3,FALSE)</f>
+        <f>VLOOKUP(D37,'HHs Surveyed'!$A$1:$C$55,3,FALSE)</f>
         <v>64</v>
       </c>
       <c r="H37">
@@ -7604,7 +7592,7 @@
         <v>301</v>
       </c>
       <c r="G38">
-        <f>VLOOKUP(D38,Sheet1!$A$1:$C$55,3,FALSE)</f>
+        <f>VLOOKUP(D38,'HHs Surveyed'!$A$1:$C$55,3,FALSE)</f>
         <v>52</v>
       </c>
       <c r="H38">
@@ -7678,7 +7666,7 @@
         <v>310</v>
       </c>
       <c r="G39">
-        <f>VLOOKUP(D39,Sheet1!$A$1:$C$55,3,FALSE)</f>
+        <f>VLOOKUP(D39,'HHs Surveyed'!$A$1:$C$55,3,FALSE)</f>
         <v>53</v>
       </c>
       <c r="H39">
@@ -7755,7 +7743,7 @@
         <v>317</v>
       </c>
       <c r="G40">
-        <f>VLOOKUP(D40,Sheet1!$A$1:$C$55,3,FALSE)</f>
+        <f>VLOOKUP(D40,'HHs Surveyed'!$A$1:$C$55,3,FALSE)</f>
         <v>65</v>
       </c>
       <c r="H40">
@@ -7832,7 +7820,7 @@
         <v>324</v>
       </c>
       <c r="G41">
-        <f>VLOOKUP(D41,Sheet1!$A$1:$C$55,3,FALSE)</f>
+        <f>VLOOKUP(D41,'HHs Surveyed'!$A$1:$C$55,3,FALSE)</f>
         <v>42</v>
       </c>
       <c r="H41">
@@ -7909,7 +7897,7 @@
         <v>334</v>
       </c>
       <c r="G42">
-        <f>VLOOKUP(D42,Sheet1!$A$1:$C$55,3,FALSE)</f>
+        <f>VLOOKUP(D42,'HHs Surveyed'!$A$1:$C$55,3,FALSE)</f>
         <v>44</v>
       </c>
       <c r="H42">
@@ -7986,7 +7974,7 @@
         <v>341</v>
       </c>
       <c r="G43">
-        <f>VLOOKUP(D43,Sheet1!$A$1:$C$55,3,FALSE)</f>
+        <f>VLOOKUP(D43,'HHs Surveyed'!$A$1:$C$55,3,FALSE)</f>
         <v>62</v>
       </c>
       <c r="H43">
@@ -8063,7 +8051,7 @@
         <v>348</v>
       </c>
       <c r="G44">
-        <f>VLOOKUP(D44,Sheet1!$A$1:$C$55,3,FALSE)</f>
+        <f>VLOOKUP(D44,'HHs Surveyed'!$A$1:$C$55,3,FALSE)</f>
         <v>46</v>
       </c>
       <c r="H44">
@@ -8140,7 +8128,7 @@
         <v>358</v>
       </c>
       <c r="G45">
-        <f>VLOOKUP(D45,Sheet1!$A$1:$C$55,3,FALSE)</f>
+        <f>VLOOKUP(D45,'HHs Surveyed'!$A$1:$C$55,3,FALSE)</f>
         <v>81</v>
       </c>
       <c r="H45">
@@ -8217,7 +8205,7 @@
         <v>367</v>
       </c>
       <c r="G46">
-        <f>VLOOKUP(D46,Sheet1!$A$1:$C$55,3,FALSE)</f>
+        <f>VLOOKUP(D46,'HHs Surveyed'!$A$1:$C$55,3,FALSE)</f>
         <v>65</v>
       </c>
       <c r="H46">
@@ -8294,7 +8282,7 @@
         <v>374</v>
       </c>
       <c r="G47">
-        <f>VLOOKUP(D47,Sheet1!$A$1:$C$55,3,FALSE)</f>
+        <f>VLOOKUP(D47,'HHs Surveyed'!$A$1:$C$55,3,FALSE)</f>
         <v>52</v>
       </c>
       <c r="H47">
@@ -8371,7 +8359,7 @@
         <v>358</v>
       </c>
       <c r="G48">
-        <f>VLOOKUP(D48,Sheet1!$A$1:$C$55,3,FALSE)</f>
+        <f>VLOOKUP(D48,'HHs Surveyed'!$A$1:$C$55,3,FALSE)</f>
         <v>44</v>
       </c>
       <c r="H48">
@@ -8448,7 +8436,7 @@
         <v>348</v>
       </c>
       <c r="G49">
-        <f>VLOOKUP(D49,Sheet1!$A$1:$C$55,3,FALSE)</f>
+        <f>VLOOKUP(D49,'HHs Surveyed'!$A$1:$C$55,3,FALSE)</f>
         <v>48</v>
       </c>
       <c r="H49">
@@ -8525,7 +8513,7 @@
         <v>367</v>
       </c>
       <c r="G50">
-        <f>VLOOKUP(D50,Sheet1!$A$1:$C$55,3,FALSE)</f>
+        <f>VLOOKUP(D50,'HHs Surveyed'!$A$1:$C$55,3,FALSE)</f>
         <v>65</v>
       </c>
       <c r="H50">
@@ -8602,7 +8590,7 @@
         <v>367</v>
       </c>
       <c r="G51">
-        <f>VLOOKUP(D51,Sheet1!$A$1:$C$55,3,FALSE)</f>
+        <f>VLOOKUP(D51,'HHs Surveyed'!$A$1:$C$55,3,FALSE)</f>
         <v>30</v>
       </c>
       <c r="H51">
@@ -8679,7 +8667,7 @@
         <v>341</v>
       </c>
       <c r="G52">
-        <f>VLOOKUP(D52,Sheet1!$A$1:$C$55,3,FALSE)</f>
+        <f>VLOOKUP(D52,'HHs Surveyed'!$A$1:$C$55,3,FALSE)</f>
         <v>30</v>
       </c>
       <c r="H52">
@@ -8756,7 +8744,7 @@
         <v>415</v>
       </c>
       <c r="G53">
-        <f>VLOOKUP(D53,Sheet1!$A$1:$C$55,3,FALSE)</f>
+        <f>VLOOKUP(D53,'HHs Surveyed'!$A$1:$C$55,3,FALSE)</f>
         <v>43</v>
       </c>
       <c r="H53">
@@ -8833,7 +8821,7 @@
         <v>421</v>
       </c>
       <c r="G54">
-        <f>VLOOKUP(D54,Sheet1!$A$1:$C$55,3,FALSE)</f>
+        <f>VLOOKUP(D54,'HHs Surveyed'!$A$1:$C$55,3,FALSE)</f>
         <v>74</v>
       </c>
       <c r="H54">
@@ -8910,7 +8898,7 @@
         <v>429</v>
       </c>
       <c r="G55">
-        <f>VLOOKUP(D55,Sheet1!$A$1:$C$55,3,FALSE)</f>
+        <f>VLOOKUP(D55,'HHs Surveyed'!$A$1:$C$55,3,FALSE)</f>
         <v>43</v>
       </c>
       <c r="H55">
@@ -8978,7 +8966,7 @@
         <v>436</v>
       </c>
       <c r="G56" t="e">
-        <f>VLOOKUP(D56,Sheet1!$A$1:$C$55,3,FALSE)</f>
+        <f>VLOOKUP(D56,'HHs Surveyed'!$A$1:$C$55,3,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="H56">
@@ -9046,7 +9034,7 @@
         <v>444</v>
       </c>
       <c r="G57" t="e">
-        <f>VLOOKUP(D57,Sheet1!$A$1:$C$55,3,FALSE)</f>
+        <f>VLOOKUP(D57,'HHs Surveyed'!$A$1:$C$55,3,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="H57">
@@ -9114,7 +9102,7 @@
         <v>450</v>
       </c>
       <c r="G58" t="e">
-        <f>VLOOKUP(D58,Sheet1!$A$1:$C$55,3,FALSE)</f>
+        <f>VLOOKUP(D58,'HHs Surveyed'!$A$1:$C$55,3,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="H58">
@@ -9182,7 +9170,7 @@
         <v>456</v>
       </c>
       <c r="G59" t="e">
-        <f>VLOOKUP(D59,Sheet1!$A$1:$C$55,3,FALSE)</f>
+        <f>VLOOKUP(D59,'HHs Surveyed'!$A$1:$C$55,3,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="H59">
@@ -9250,7 +9238,7 @@
         <v>464</v>
       </c>
       <c r="G60" t="e">
-        <f>VLOOKUP(D60,Sheet1!$A$1:$C$55,3,FALSE)</f>
+        <f>VLOOKUP(D60,'HHs Surveyed'!$A$1:$C$55,3,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="H60">
@@ -9318,7 +9306,7 @@
         <v>472</v>
       </c>
       <c r="G61" t="e">
-        <f>VLOOKUP(D61,Sheet1!$A$1:$C$55,3,FALSE)</f>
+        <f>VLOOKUP(D61,'HHs Surveyed'!$A$1:$C$55,3,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="H61">
@@ -9383,7 +9371,7 @@
         <v>472</v>
       </c>
       <c r="G62" t="e">
-        <f>VLOOKUP(D62,Sheet1!$A$1:$C$55,3,FALSE)</f>
+        <f>VLOOKUP(D62,'HHs Surveyed'!$A$1:$C$55,3,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="H62">
@@ -9451,7 +9439,7 @@
         <v>486</v>
       </c>
       <c r="G63" t="e">
-        <f>VLOOKUP(D63,Sheet1!$A$1:$C$55,3,FALSE)</f>
+        <f>VLOOKUP(D63,'HHs Surveyed'!$A$1:$C$55,3,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="H63">
@@ -9519,7 +9507,7 @@
         <v>492</v>
       </c>
       <c r="G64" t="e">
-        <f>VLOOKUP(D64,Sheet1!$A$1:$C$55,3,FALSE)</f>
+        <f>VLOOKUP(D64,'HHs Surveyed'!$A$1:$C$55,3,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="H64">
@@ -9587,7 +9575,7 @@
         <v>429</v>
       </c>
       <c r="G65" t="e">
-        <f>VLOOKUP(D65,Sheet1!$A$1:$C$55,3,FALSE)</f>
+        <f>VLOOKUP(D65,'HHs Surveyed'!$A$1:$C$55,3,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="H65">
@@ -9655,7 +9643,7 @@
         <v>334</v>
       </c>
       <c r="G66" t="e">
-        <f>VLOOKUP(D66,Sheet1!$A$1:$C$55,3,FALSE)</f>
+        <f>VLOOKUP(D66,'HHs Surveyed'!$A$1:$C$55,3,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="H66">
@@ -9723,7 +9711,7 @@
         <v>514</v>
       </c>
       <c r="G67" t="e">
-        <f>VLOOKUP(D67,Sheet1!$A$1:$C$55,3,FALSE)</f>
+        <f>VLOOKUP(D67,'HHs Surveyed'!$A$1:$C$55,3,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="H67">
@@ -9791,7 +9779,7 @@
         <v>514</v>
       </c>
       <c r="G68" t="e">
-        <f>VLOOKUP(D68,Sheet1!$A$1:$C$55,3,FALSE)</f>
+        <f>VLOOKUP(D68,'HHs Surveyed'!$A$1:$C$55,3,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="H68">
@@ -9859,7 +9847,7 @@
         <v>514</v>
       </c>
       <c r="G69" t="e">
-        <f>VLOOKUP(D69,Sheet1!$A$1:$C$55,3,FALSE)</f>
+        <f>VLOOKUP(D69,'HHs Surveyed'!$A$1:$C$55,3,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="H69">
@@ -9927,7 +9915,7 @@
         <v>514</v>
       </c>
       <c r="G70" t="e">
-        <f>VLOOKUP(D70,Sheet1!$A$1:$C$55,3,FALSE)</f>
+        <f>VLOOKUP(D70,'HHs Surveyed'!$A$1:$C$55,3,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="H70">
@@ -9995,7 +9983,7 @@
         <v>514</v>
       </c>
       <c r="G71" t="e">
-        <f>VLOOKUP(D71,Sheet1!$A$1:$C$55,3,FALSE)</f>
+        <f>VLOOKUP(D71,'HHs Surveyed'!$A$1:$C$55,3,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="H71">
@@ -10063,7 +10051,7 @@
         <v>514</v>
       </c>
       <c r="G72" t="e">
-        <f>VLOOKUP(D72,Sheet1!$A$1:$C$55,3,FALSE)</f>
+        <f>VLOOKUP(D72,'HHs Surveyed'!$A$1:$C$55,3,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="H72">
@@ -10131,7 +10119,7 @@
         <v>514</v>
       </c>
       <c r="G73" t="e">
-        <f>VLOOKUP(D73,Sheet1!$A$1:$C$55,3,FALSE)</f>
+        <f>VLOOKUP(D73,'HHs Surveyed'!$A$1:$C$55,3,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="H73">
@@ -10199,7 +10187,7 @@
         <v>514</v>
       </c>
       <c r="G74" t="e">
-        <f>VLOOKUP(D74,Sheet1!$A$1:$C$55,3,FALSE)</f>
+        <f>VLOOKUP(D74,'HHs Surveyed'!$A$1:$C$55,3,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="H74">
@@ -10267,7 +10255,7 @@
         <v>514</v>
       </c>
       <c r="G75" t="e">
-        <f>VLOOKUP(D75,Sheet1!$A$1:$C$55,3,FALSE)</f>
+        <f>VLOOKUP(D75,'HHs Surveyed'!$A$1:$C$55,3,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="H75">
@@ -10335,7 +10323,7 @@
         <v>514</v>
       </c>
       <c r="G76" t="e">
-        <f>VLOOKUP(D76,Sheet1!$A$1:$C$55,3,FALSE)</f>
+        <f>VLOOKUP(D76,'HHs Surveyed'!$A$1:$C$55,3,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="H76">
@@ -10403,7 +10391,7 @@
         <v>429</v>
       </c>
       <c r="G77" t="e">
-        <f>VLOOKUP(D77,Sheet1!$A$1:$C$55,3,FALSE)</f>
+        <f>VLOOKUP(D77,'HHs Surveyed'!$A$1:$C$55,3,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="H77">
@@ -10471,7 +10459,7 @@
         <v>429</v>
       </c>
       <c r="G78" t="e">
-        <f>VLOOKUP(D78,Sheet1!$A$1:$C$55,3,FALSE)</f>
+        <f>VLOOKUP(D78,'HHs Surveyed'!$A$1:$C$55,3,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="H78">
@@ -10539,7 +10527,7 @@
         <v>367</v>
       </c>
       <c r="G79" t="e">
-        <f>VLOOKUP(D79,Sheet1!$A$1:$C$55,3,FALSE)</f>
+        <f>VLOOKUP(D79,'HHs Surveyed'!$A$1:$C$55,3,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="H79">
@@ -10607,7 +10595,7 @@
         <v>429</v>
       </c>
       <c r="G80" t="e">
-        <f>VLOOKUP(D80,Sheet1!$A$1:$C$55,3,FALSE)</f>
+        <f>VLOOKUP(D80,'HHs Surveyed'!$A$1:$C$55,3,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="H80">
@@ -10675,7 +10663,7 @@
         <v>429</v>
       </c>
       <c r="G81" t="e">
-        <f>VLOOKUP(D81,Sheet1!$A$1:$C$55,3,FALSE)</f>
+        <f>VLOOKUP(D81,'HHs Surveyed'!$A$1:$C$55,3,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="H81">
@@ -10743,7 +10731,7 @@
         <v>604</v>
       </c>
       <c r="G82" t="e">
-        <f>VLOOKUP(D82,Sheet1!$A$1:$C$55,3,FALSE)</f>
+        <f>VLOOKUP(D82,'HHs Surveyed'!$A$1:$C$55,3,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="H82">
@@ -10811,7 +10799,7 @@
         <v>429</v>
       </c>
       <c r="G83" t="e">
-        <f>VLOOKUP(D83,Sheet1!$A$1:$C$55,3,FALSE)</f>
+        <f>VLOOKUP(D83,'HHs Surveyed'!$A$1:$C$55,3,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="H83">
@@ -10879,7 +10867,7 @@
         <v>429</v>
       </c>
       <c r="G84" t="e">
-        <f>VLOOKUP(D84,Sheet1!$A$1:$C$55,3,FALSE)</f>
+        <f>VLOOKUP(D84,'HHs Surveyed'!$A$1:$C$55,3,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="H84">
@@ -10947,7 +10935,7 @@
         <v>367</v>
       </c>
       <c r="G85" t="e">
-        <f>VLOOKUP(D85,Sheet1!$A$1:$C$55,3,FALSE)</f>
+        <f>VLOOKUP(D85,'HHs Surveyed'!$A$1:$C$55,3,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="H85">
@@ -11015,7 +11003,7 @@
         <v>429</v>
       </c>
       <c r="G86" t="e">
-        <f>VLOOKUP(D86,Sheet1!$A$1:$C$55,3,FALSE)</f>
+        <f>VLOOKUP(D86,'HHs Surveyed'!$A$1:$C$55,3,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="H86">
@@ -11083,7 +11071,7 @@
         <v>635</v>
       </c>
       <c r="G87" t="e">
-        <f>VLOOKUP(D87,Sheet1!$A$1:$C$55,3,FALSE)</f>
+        <f>VLOOKUP(D87,'HHs Surveyed'!$A$1:$C$55,3,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="H87">
@@ -11151,7 +11139,7 @@
         <v>635</v>
       </c>
       <c r="G88" t="e">
-        <f>VLOOKUP(D88,Sheet1!$A$1:$C$55,3,FALSE)</f>
+        <f>VLOOKUP(D88,'HHs Surveyed'!$A$1:$C$55,3,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="H88">
@@ -11219,7 +11207,7 @@
         <v>635</v>
       </c>
       <c r="G89" t="e">
-        <f>VLOOKUP(D89,Sheet1!$A$1:$C$55,3,FALSE)</f>
+        <f>VLOOKUP(D89,'HHs Surveyed'!$A$1:$C$55,3,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="H89">
@@ -11287,7 +11275,7 @@
         <v>635</v>
       </c>
       <c r="G90" t="e">
-        <f>VLOOKUP(D90,Sheet1!$A$1:$C$55,3,FALSE)</f>
+        <f>VLOOKUP(D90,'HHs Surveyed'!$A$1:$C$55,3,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="H90">
@@ -11355,7 +11343,7 @@
         <v>635</v>
       </c>
       <c r="G91" t="e">
-        <f>VLOOKUP(D91,Sheet1!$A$1:$C$55,3,FALSE)</f>
+        <f>VLOOKUP(D91,'HHs Surveyed'!$A$1:$C$55,3,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="H91">
@@ -11423,7 +11411,7 @@
         <v>635</v>
       </c>
       <c r="G92" t="e">
-        <f>VLOOKUP(D92,Sheet1!$A$1:$C$55,3,FALSE)</f>
+        <f>VLOOKUP(D92,'HHs Surveyed'!$A$1:$C$55,3,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="H92">
@@ -11491,7 +11479,7 @@
         <v>514</v>
       </c>
       <c r="G93" t="e">
-        <f>VLOOKUP(D93,Sheet1!$A$1:$C$55,3,FALSE)</f>
+        <f>VLOOKUP(D93,'HHs Surveyed'!$A$1:$C$55,3,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="H93">
@@ -11559,7 +11547,7 @@
         <v>635</v>
       </c>
       <c r="G94" t="e">
-        <f>VLOOKUP(D94,Sheet1!$A$1:$C$55,3,FALSE)</f>
+        <f>VLOOKUP(D94,'HHs Surveyed'!$A$1:$C$55,3,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="H94">
@@ -11627,7 +11615,7 @@
         <v>635</v>
       </c>
       <c r="G95" t="e">
-        <f>VLOOKUP(D95,Sheet1!$A$1:$C$55,3,FALSE)</f>
+        <f>VLOOKUP(D95,'HHs Surveyed'!$A$1:$C$55,3,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="H95">
@@ -11695,7 +11683,7 @@
         <v>514</v>
       </c>
       <c r="G96" t="e">
-        <f>VLOOKUP(D96,Sheet1!$A$1:$C$55,3,FALSE)</f>
+        <f>VLOOKUP(D96,'HHs Surveyed'!$A$1:$C$55,3,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="H96">
@@ -11763,7 +11751,7 @@
         <v>635</v>
       </c>
       <c r="G97" t="e">
-        <f>VLOOKUP(D97,Sheet1!$A$1:$C$55,3,FALSE)</f>
+        <f>VLOOKUP(D97,'HHs Surveyed'!$A$1:$C$55,3,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="H97">
@@ -11831,7 +11819,7 @@
         <v>635</v>
       </c>
       <c r="G98" t="e">
-        <f>VLOOKUP(D98,Sheet1!$A$1:$C$55,3,FALSE)</f>
+        <f>VLOOKUP(D98,'HHs Surveyed'!$A$1:$C$55,3,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="H98">
@@ -11899,7 +11887,7 @@
         <v>635</v>
       </c>
       <c r="G99" t="e">
-        <f>VLOOKUP(D99,Sheet1!$A$1:$C$55,3,FALSE)</f>
+        <f>VLOOKUP(D99,'HHs Surveyed'!$A$1:$C$55,3,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="H99">
@@ -11967,7 +11955,7 @@
         <v>635</v>
       </c>
       <c r="G100" t="e">
-        <f>VLOOKUP(D100,Sheet1!$A$1:$C$55,3,FALSE)</f>
+        <f>VLOOKUP(D100,'HHs Surveyed'!$A$1:$C$55,3,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="H100">
@@ -12035,7 +12023,7 @@
         <v>635</v>
       </c>
       <c r="G101" t="e">
-        <f>VLOOKUP(D101,Sheet1!$A$1:$C$55,3,FALSE)</f>
+        <f>VLOOKUP(D101,'HHs Surveyed'!$A$1:$C$55,3,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="H101">
@@ -12103,7 +12091,7 @@
         <v>635</v>
       </c>
       <c r="G102" t="e">
-        <f>VLOOKUP(D102,Sheet1!$A$1:$C$55,3,FALSE)</f>
+        <f>VLOOKUP(D102,'HHs Surveyed'!$A$1:$C$55,3,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="H102">
@@ -12171,7 +12159,7 @@
         <v>635</v>
       </c>
       <c r="G103" t="e">
-        <f>VLOOKUP(D103,Sheet1!$A$1:$C$55,3,FALSE)</f>
+        <f>VLOOKUP(D103,'HHs Surveyed'!$A$1:$C$55,3,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="H103">
@@ -12239,7 +12227,7 @@
         <v>635</v>
       </c>
       <c r="G104" t="e">
-        <f>VLOOKUP(D104,Sheet1!$A$1:$C$55,3,FALSE)</f>
+        <f>VLOOKUP(D104,'HHs Surveyed'!$A$1:$C$55,3,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="H104">
@@ -12307,7 +12295,7 @@
         <v>635</v>
       </c>
       <c r="G105" t="e">
-        <f>VLOOKUP(D105,Sheet1!$A$1:$C$55,3,FALSE)</f>
+        <f>VLOOKUP(D105,'HHs Surveyed'!$A$1:$C$55,3,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="H105">
@@ -12375,7 +12363,7 @@
         <v>635</v>
       </c>
       <c r="G106" t="e">
-        <f>VLOOKUP(D106,Sheet1!$A$1:$C$55,3,FALSE)</f>
+        <f>VLOOKUP(D106,'HHs Surveyed'!$A$1:$C$55,3,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="H106">
@@ -12443,7 +12431,7 @@
         <v>635</v>
       </c>
       <c r="G107" t="e">
-        <f>VLOOKUP(D107,Sheet1!$A$1:$C$55,3,FALSE)</f>
+        <f>VLOOKUP(D107,'HHs Surveyed'!$A$1:$C$55,3,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="H107">
@@ -12511,7 +12499,7 @@
         <v>635</v>
       </c>
       <c r="G108" t="e">
-        <f>VLOOKUP(D108,Sheet1!$A$1:$C$55,3,FALSE)</f>
+        <f>VLOOKUP(D108,'HHs Surveyed'!$A$1:$C$55,3,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="H108">
@@ -12579,7 +12567,7 @@
         <v>774</v>
       </c>
       <c r="G109" t="e">
-        <f>VLOOKUP(D109,Sheet1!$A$1:$C$55,3,FALSE)</f>
+        <f>VLOOKUP(D109,'HHs Surveyed'!$A$1:$C$55,3,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="H109">
@@ -12647,7 +12635,7 @@
         <v>635</v>
       </c>
       <c r="G110" t="e">
-        <f>VLOOKUP(D110,Sheet1!$A$1:$C$55,3,FALSE)</f>
+        <f>VLOOKUP(D110,'HHs Surveyed'!$A$1:$C$55,3,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="H110">
@@ -12715,7 +12703,7 @@
         <v>635</v>
       </c>
       <c r="G111" t="e">
-        <f>VLOOKUP(D111,Sheet1!$A$1:$C$55,3,FALSE)</f>
+        <f>VLOOKUP(D111,'HHs Surveyed'!$A$1:$C$55,3,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="H111">
@@ -12783,7 +12771,7 @@
         <v>635</v>
       </c>
       <c r="G112" t="e">
-        <f>VLOOKUP(D112,Sheet1!$A$1:$C$55,3,FALSE)</f>
+        <f>VLOOKUP(D112,'HHs Surveyed'!$A$1:$C$55,3,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="H112">
@@ -12851,7 +12839,7 @@
         <v>324</v>
       </c>
       <c r="G113" t="e">
-        <f>VLOOKUP(D113,Sheet1!$A$1:$C$55,3,FALSE)</f>
+        <f>VLOOKUP(D113,'HHs Surveyed'!$A$1:$C$55,3,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="H113">
@@ -12919,7 +12907,7 @@
         <v>806</v>
       </c>
       <c r="G114" t="e">
-        <f>VLOOKUP(D114,Sheet1!$A$1:$C$55,3,FALSE)</f>
+        <f>VLOOKUP(D114,'HHs Surveyed'!$A$1:$C$55,3,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="H114">
@@ -12987,7 +12975,7 @@
         <v>806</v>
       </c>
       <c r="G115" t="e">
-        <f>VLOOKUP(D115,Sheet1!$A$1:$C$55,3,FALSE)</f>
+        <f>VLOOKUP(D115,'HHs Surveyed'!$A$1:$C$55,3,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="H115">
@@ -13055,7 +13043,7 @@
         <v>806</v>
       </c>
       <c r="G116" t="e">
-        <f>VLOOKUP(D116,Sheet1!$A$1:$C$55,3,FALSE)</f>
+        <f>VLOOKUP(D116,'HHs Surveyed'!$A$1:$C$55,3,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="H116">
@@ -13123,7 +13111,7 @@
         <v>806</v>
       </c>
       <c r="G117" t="e">
-        <f>VLOOKUP(D117,Sheet1!$A$1:$C$55,3,FALSE)</f>
+        <f>VLOOKUP(D117,'HHs Surveyed'!$A$1:$C$55,3,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="H117">
@@ -13191,7 +13179,7 @@
         <v>806</v>
       </c>
       <c r="G118" t="e">
-        <f>VLOOKUP(D118,Sheet1!$A$1:$C$55,3,FALSE)</f>
+        <f>VLOOKUP(D118,'HHs Surveyed'!$A$1:$C$55,3,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="H118">
@@ -13259,7 +13247,7 @@
         <v>635</v>
       </c>
       <c r="G119" t="e">
-        <f>VLOOKUP(D119,Sheet1!$A$1:$C$55,3,FALSE)</f>
+        <f>VLOOKUP(D119,'HHs Surveyed'!$A$1:$C$55,3,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="H119">
@@ -13327,7 +13315,7 @@
         <v>842</v>
       </c>
       <c r="G120" t="e">
-        <f>VLOOKUP(D120,Sheet1!$A$1:$C$55,3,FALSE)</f>
+        <f>VLOOKUP(D120,'HHs Surveyed'!$A$1:$C$55,3,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="H120">
@@ -13404,7 +13392,7 @@
         <v>45723</v>
       </c>
       <c r="G121">
-        <f>VLOOKUP(D121,Sheet1!$A$1:$C$55,3,FALSE)</f>
+        <f>VLOOKUP(D121,'HHs Surveyed'!$A$1:$C$55,3,FALSE)</f>
         <v>51</v>
       </c>
       <c r="H121">
@@ -13478,7 +13466,7 @@
         <v>45723</v>
       </c>
       <c r="G122">
-        <f>VLOOKUP(D122,Sheet1!$A$1:$C$55,3,FALSE)</f>
+        <f>VLOOKUP(D122,'HHs Surveyed'!$A$1:$C$55,3,FALSE)</f>
         <v>61</v>
       </c>
       <c r="H122">
@@ -13552,7 +13540,7 @@
         <v>849</v>
       </c>
       <c r="G123">
-        <f>VLOOKUP(D123,Sheet1!$A$1:$C$55,3,FALSE)</f>
+        <f>VLOOKUP(D123,'HHs Surveyed'!$A$1:$C$55,3,FALSE)</f>
         <v>57</v>
       </c>
       <c r="H123">
@@ -13626,7 +13614,7 @@
         <v>869</v>
       </c>
       <c r="G124">
-        <f>VLOOKUP(D124,Sheet1!$A$1:$C$55,3,FALSE)</f>
+        <f>VLOOKUP(D124,'HHs Surveyed'!$A$1:$C$55,3,FALSE)</f>
         <v>41</v>
       </c>
       <c r="H124">
@@ -13700,7 +13688,7 @@
         <v>869</v>
       </c>
       <c r="G125">
-        <f>VLOOKUP(D125,Sheet1!$A$1:$C$55,3,FALSE)</f>
+        <f>VLOOKUP(D125,'HHs Surveyed'!$A$1:$C$55,3,FALSE)</f>
         <v>62</v>
       </c>
       <c r="H125">
@@ -13774,7 +13762,7 @@
         <v>882</v>
       </c>
       <c r="G126">
-        <f>VLOOKUP(D126,Sheet1!$A$1:$C$55,3,FALSE)</f>
+        <f>VLOOKUP(D126,'HHs Surveyed'!$A$1:$C$55,3,FALSE)</f>
         <v>53</v>
       </c>
       <c r="H126">
@@ -13848,7 +13836,7 @@
         <v>882</v>
       </c>
       <c r="G127">
-        <f>VLOOKUP(D127,Sheet1!$A$1:$C$55,3,FALSE)</f>
+        <f>VLOOKUP(D127,'HHs Surveyed'!$A$1:$C$55,3,FALSE)</f>
         <v>66</v>
       </c>
       <c r="H127">
@@ -13922,7 +13910,7 @@
         <v>882</v>
       </c>
       <c r="G128">
-        <f>VLOOKUP(D128,Sheet1!$A$1:$C$55,3,FALSE)</f>
+        <f>VLOOKUP(D128,'HHs Surveyed'!$A$1:$C$55,3,FALSE)</f>
         <v>53</v>
       </c>
       <c r="H128">
@@ -13996,7 +13984,7 @@
         <v>882</v>
       </c>
       <c r="G129">
-        <f>VLOOKUP(D129,Sheet1!$A$1:$C$55,3,FALSE)</f>
+        <f>VLOOKUP(D129,'HHs Surveyed'!$A$1:$C$55,3,FALSE)</f>
         <v>58</v>
       </c>
       <c r="H129">
@@ -14070,7 +14058,7 @@
         <v>882</v>
       </c>
       <c r="G130">
-        <f>VLOOKUP(D130,Sheet1!$A$1:$C$55,3,FALSE)</f>
+        <f>VLOOKUP(D130,'HHs Surveyed'!$A$1:$C$55,3,FALSE)</f>
         <v>50</v>
       </c>
       <c r="H130">
@@ -14144,7 +14132,7 @@
         <v>882</v>
       </c>
       <c r="G131">
-        <f>VLOOKUP(D131,Sheet1!$A$1:$C$55,3,FALSE)</f>
+        <f>VLOOKUP(D131,'HHs Surveyed'!$A$1:$C$55,3,FALSE)</f>
         <v>56</v>
       </c>
       <c r="H131">
@@ -14218,7 +14206,7 @@
         <v>882</v>
       </c>
       <c r="G132">
-        <f>VLOOKUP(D132,Sheet1!$A$1:$C$55,3,FALSE)</f>
+        <f>VLOOKUP(D132,'HHs Surveyed'!$A$1:$C$55,3,FALSE)</f>
         <v>66</v>
       </c>
       <c r="H132">
@@ -14292,7 +14280,7 @@
         <v>882</v>
       </c>
       <c r="G133">
-        <f>VLOOKUP(D133,Sheet1!$A$1:$C$55,3,FALSE)</f>
+        <f>VLOOKUP(D133,'HHs Surveyed'!$A$1:$C$55,3,FALSE)</f>
         <v>51</v>
       </c>
       <c r="H133">
@@ -14366,7 +14354,7 @@
         <v>882</v>
       </c>
       <c r="G134">
-        <f>VLOOKUP(D134,Sheet1!$A$1:$C$55,3,FALSE)</f>
+        <f>VLOOKUP(D134,'HHs Surveyed'!$A$1:$C$55,3,FALSE)</f>
         <v>65</v>
       </c>
       <c r="H134">
@@ -14440,7 +14428,7 @@
         <v>882</v>
       </c>
       <c r="G135">
-        <f>VLOOKUP(D135,Sheet1!$A$1:$C$55,3,FALSE)</f>
+        <f>VLOOKUP(D135,'HHs Surveyed'!$A$1:$C$55,3,FALSE)</f>
         <v>58</v>
       </c>
       <c r="H135">
@@ -14514,7 +14502,7 @@
         <v>882</v>
       </c>
       <c r="G136">
-        <f>VLOOKUP(D136,Sheet1!$A$1:$C$55,3,FALSE)</f>
+        <f>VLOOKUP(D136,'HHs Surveyed'!$A$1:$C$55,3,FALSE)</f>
         <v>61</v>
       </c>
       <c r="H136">
@@ -14588,7 +14576,7 @@
         <v>882</v>
       </c>
       <c r="G137">
-        <f>VLOOKUP(D137,Sheet1!$A$1:$C$55,3,FALSE)</f>
+        <f>VLOOKUP(D137,'HHs Surveyed'!$A$1:$C$55,3,FALSE)</f>
         <v>53</v>
       </c>
       <c r="H137">
@@ -14662,7 +14650,7 @@
         <v>882</v>
       </c>
       <c r="G138">
-        <f>VLOOKUP(D138,Sheet1!$A$1:$C$55,3,FALSE)</f>
+        <f>VLOOKUP(D138,'HHs Surveyed'!$A$1:$C$55,3,FALSE)</f>
         <v>49</v>
       </c>
       <c r="H138">
@@ -14736,7 +14724,7 @@
         <v>882</v>
       </c>
       <c r="G139">
-        <f>VLOOKUP(D139,Sheet1!$A$1:$C$55,3,FALSE)</f>
+        <f>VLOOKUP(D139,'HHs Surveyed'!$A$1:$C$55,3,FALSE)</f>
         <v>81</v>
       </c>
       <c r="H139">
@@ -14810,7 +14798,7 @@
         <v>882</v>
       </c>
       <c r="G140">
-        <f>VLOOKUP(D140,Sheet1!$A$1:$C$55,3,FALSE)</f>
+        <f>VLOOKUP(D140,'HHs Surveyed'!$A$1:$C$55,3,FALSE)</f>
         <v>53</v>
       </c>
       <c r="H140">
@@ -14884,7 +14872,7 @@
         <v>882</v>
       </c>
       <c r="G141">
-        <f>VLOOKUP(D141,Sheet1!$A$1:$C$55,3,FALSE)</f>
+        <f>VLOOKUP(D141,'HHs Surveyed'!$A$1:$C$55,3,FALSE)</f>
         <v>64</v>
       </c>
       <c r="H141">
@@ -14958,7 +14946,7 @@
         <v>882</v>
       </c>
       <c r="G142">
-        <f>VLOOKUP(D142,Sheet1!$A$1:$C$55,3,FALSE)</f>
+        <f>VLOOKUP(D142,'HHs Surveyed'!$A$1:$C$55,3,FALSE)</f>
         <v>64</v>
       </c>
       <c r="H142">
@@ -15032,7 +15020,7 @@
         <v>882</v>
       </c>
       <c r="G143">
-        <f>VLOOKUP(D143,Sheet1!$A$1:$C$55,3,FALSE)</f>
+        <f>VLOOKUP(D143,'HHs Surveyed'!$A$1:$C$55,3,FALSE)</f>
         <v>29</v>
       </c>
       <c r="H143">
@@ -15106,7 +15094,7 @@
         <v>882</v>
       </c>
       <c r="G144">
-        <f>VLOOKUP(D144,Sheet1!$A$1:$C$55,3,FALSE)</f>
+        <f>VLOOKUP(D144,'HHs Surveyed'!$A$1:$C$55,3,FALSE)</f>
         <v>49</v>
       </c>
       <c r="H144">
@@ -15180,7 +15168,7 @@
         <v>882</v>
       </c>
       <c r="G145">
-        <f>VLOOKUP(D145,Sheet1!$A$1:$C$55,3,FALSE)</f>
+        <f>VLOOKUP(D145,'HHs Surveyed'!$A$1:$C$55,3,FALSE)</f>
         <v>56</v>
       </c>
       <c r="H145">
@@ -15254,7 +15242,7 @@
         <v>882</v>
       </c>
       <c r="G146">
-        <f>VLOOKUP(D146,Sheet1!$A$1:$C$55,3,FALSE)</f>
+        <f>VLOOKUP(D146,'HHs Surveyed'!$A$1:$C$55,3,FALSE)</f>
         <v>67</v>
       </c>
       <c r="H146">
@@ -15328,7 +15316,7 @@
         <v>882</v>
       </c>
       <c r="G147">
-        <f>VLOOKUP(D147,Sheet1!$A$1:$C$55,3,FALSE)</f>
+        <f>VLOOKUP(D147,'HHs Surveyed'!$A$1:$C$55,3,FALSE)</f>
         <v>48</v>
       </c>
       <c r="H147">
@@ -15402,7 +15390,7 @@
         <v>882</v>
       </c>
       <c r="G148">
-        <f>VLOOKUP(D148,Sheet1!$A$1:$C$55,3,FALSE)</f>
+        <f>VLOOKUP(D148,'HHs Surveyed'!$A$1:$C$55,3,FALSE)</f>
         <v>71</v>
       </c>
       <c r="H148">
@@ -15476,7 +15464,7 @@
         <v>882</v>
       </c>
       <c r="G149">
-        <f>VLOOKUP(D149,Sheet1!$A$1:$C$55,3,FALSE)</f>
+        <f>VLOOKUP(D149,'HHs Surveyed'!$A$1:$C$55,3,FALSE)</f>
         <v>57</v>
       </c>
       <c r="H149">
@@ -15550,7 +15538,7 @@
         <v>882</v>
       </c>
       <c r="G150">
-        <f>VLOOKUP(D150,Sheet1!$A$1:$C$55,3,FALSE)</f>
+        <f>VLOOKUP(D150,'HHs Surveyed'!$A$1:$C$55,3,FALSE)</f>
         <v>52</v>
       </c>
       <c r="H150">
@@ -15624,7 +15612,7 @@
         <v>1029</v>
       </c>
       <c r="G151">
-        <f>VLOOKUP(D151,Sheet1!$A$1:$C$55,3,FALSE)</f>
+        <f>VLOOKUP(D151,'HHs Surveyed'!$A$1:$C$55,3,FALSE)</f>
         <v>76</v>
       </c>
       <c r="H151">
@@ -15698,7 +15686,7 @@
         <v>1029</v>
       </c>
       <c r="G152">
-        <f>VLOOKUP(D152,Sheet1!$A$1:$C$55,3,FALSE)</f>
+        <f>VLOOKUP(D152,'HHs Surveyed'!$A$1:$C$55,3,FALSE)</f>
         <v>57</v>
       </c>
       <c r="H152">
@@ -15772,7 +15760,7 @@
         <v>1029</v>
       </c>
       <c r="G153">
-        <f>VLOOKUP(D153,Sheet1!$A$1:$C$55,3,FALSE)</f>
+        <f>VLOOKUP(D153,'HHs Surveyed'!$A$1:$C$55,3,FALSE)</f>
         <v>41</v>
       </c>
       <c r="H153">
@@ -15846,7 +15834,7 @@
         <v>1029</v>
       </c>
       <c r="G154">
-        <f>VLOOKUP(D154,Sheet1!$A$1:$C$55,3,FALSE)</f>
+        <f>VLOOKUP(D154,'HHs Surveyed'!$A$1:$C$55,3,FALSE)</f>
         <v>48</v>
       </c>
       <c r="H154">
@@ -15920,7 +15908,7 @@
         <v>1029</v>
       </c>
       <c r="G155">
-        <f>VLOOKUP(D155,Sheet1!$A$1:$C$55,3,FALSE)</f>
+        <f>VLOOKUP(D155,'HHs Surveyed'!$A$1:$C$55,3,FALSE)</f>
         <v>71</v>
       </c>
       <c r="H155">
@@ -15994,7 +15982,7 @@
         <v>1060</v>
       </c>
       <c r="G156">
-        <f>VLOOKUP(D156,Sheet1!$A$1:$C$55,3,FALSE)</f>
+        <f>VLOOKUP(D156,'HHs Surveyed'!$A$1:$C$55,3,FALSE)</f>
         <v>64</v>
       </c>
       <c r="H156">
@@ -16068,7 +16056,7 @@
         <v>1060</v>
       </c>
       <c r="G157">
-        <f>VLOOKUP(D157,Sheet1!$A$1:$C$55,3,FALSE)</f>
+        <f>VLOOKUP(D157,'HHs Surveyed'!$A$1:$C$55,3,FALSE)</f>
         <v>52</v>
       </c>
       <c r="H157">
@@ -16142,7 +16130,7 @@
         <v>1060</v>
       </c>
       <c r="G158">
-        <f>VLOOKUP(D158,Sheet1!$A$1:$C$55,3,FALSE)</f>
+        <f>VLOOKUP(D158,'HHs Surveyed'!$A$1:$C$55,3,FALSE)</f>
         <v>53</v>
       </c>
       <c r="H158">
@@ -16216,7 +16204,7 @@
         <v>1060</v>
       </c>
       <c r="G159">
-        <f>VLOOKUP(D159,Sheet1!$A$1:$C$55,3,FALSE)</f>
+        <f>VLOOKUP(D159,'HHs Surveyed'!$A$1:$C$55,3,FALSE)</f>
         <v>65</v>
       </c>
       <c r="H159">
@@ -16290,7 +16278,7 @@
         <v>1060</v>
       </c>
       <c r="G160">
-        <f>VLOOKUP(D160,Sheet1!$A$1:$C$55,3,FALSE)</f>
+        <f>VLOOKUP(D160,'HHs Surveyed'!$A$1:$C$55,3,FALSE)</f>
         <v>42</v>
       </c>
       <c r="H160">
@@ -16364,7 +16352,7 @@
         <v>1060</v>
       </c>
       <c r="G161">
-        <f>VLOOKUP(D161,Sheet1!$A$1:$C$55,3,FALSE)</f>
+        <f>VLOOKUP(D161,'HHs Surveyed'!$A$1:$C$55,3,FALSE)</f>
         <v>44</v>
       </c>
       <c r="H161">
@@ -16438,7 +16426,7 @@
         <v>1060</v>
       </c>
       <c r="G162">
-        <f>VLOOKUP(D162,Sheet1!$A$1:$C$55,3,FALSE)</f>
+        <f>VLOOKUP(D162,'HHs Surveyed'!$A$1:$C$55,3,FALSE)</f>
         <v>62</v>
       </c>
       <c r="H162">
@@ -16512,7 +16500,7 @@
         <v>1060</v>
       </c>
       <c r="G163">
-        <f>VLOOKUP(D163,Sheet1!$A$1:$C$55,3,FALSE)</f>
+        <f>VLOOKUP(D163,'HHs Surveyed'!$A$1:$C$55,3,FALSE)</f>
         <v>46</v>
       </c>
       <c r="H163">
@@ -16586,7 +16574,7 @@
         <v>1060</v>
       </c>
       <c r="G164">
-        <f>VLOOKUP(D164,Sheet1!$A$1:$C$55,3,FALSE)</f>
+        <f>VLOOKUP(D164,'HHs Surveyed'!$A$1:$C$55,3,FALSE)</f>
         <v>81</v>
       </c>
       <c r="H164">
@@ -16660,7 +16648,7 @@
         <v>1060</v>
       </c>
       <c r="G165">
-        <f>VLOOKUP(D165,Sheet1!$A$1:$C$55,3,FALSE)</f>
+        <f>VLOOKUP(D165,'HHs Surveyed'!$A$1:$C$55,3,FALSE)</f>
         <v>65</v>
       </c>
       <c r="H165">
@@ -16734,7 +16722,7 @@
         <v>1060</v>
       </c>
       <c r="G166">
-        <f>VLOOKUP(D166,Sheet1!$A$1:$C$55,3,FALSE)</f>
+        <f>VLOOKUP(D166,'HHs Surveyed'!$A$1:$C$55,3,FALSE)</f>
         <v>52</v>
       </c>
       <c r="H166">
@@ -16808,7 +16796,7 @@
         <v>1060</v>
       </c>
       <c r="G167">
-        <f>VLOOKUP(D167,Sheet1!$A$1:$C$55,3,FALSE)</f>
+        <f>VLOOKUP(D167,'HHs Surveyed'!$A$1:$C$55,3,FALSE)</f>
         <v>44</v>
       </c>
       <c r="H167">
@@ -16882,7 +16870,7 @@
         <v>1060</v>
       </c>
       <c r="G168">
-        <f>VLOOKUP(D168,Sheet1!$A$1:$C$55,3,FALSE)</f>
+        <f>VLOOKUP(D168,'HHs Surveyed'!$A$1:$C$55,3,FALSE)</f>
         <v>48</v>
       </c>
       <c r="H168">
@@ -16956,7 +16944,7 @@
         <v>1060</v>
       </c>
       <c r="G169">
-        <f>VLOOKUP(D169,Sheet1!$A$1:$C$55,3,FALSE)</f>
+        <f>VLOOKUP(D169,'HHs Surveyed'!$A$1:$C$55,3,FALSE)</f>
         <v>65</v>
       </c>
       <c r="H169">
@@ -17030,7 +17018,7 @@
         <v>1145</v>
       </c>
       <c r="G170">
-        <f>VLOOKUP(D170,Sheet1!$A$1:$C$55,3,FALSE)</f>
+        <f>VLOOKUP(D170,'HHs Surveyed'!$A$1:$C$55,3,FALSE)</f>
         <v>30</v>
       </c>
       <c r="H170">
@@ -17104,7 +17092,7 @@
         <v>1060</v>
       </c>
       <c r="G171">
-        <f>VLOOKUP(D171,Sheet1!$A$1:$C$55,3,FALSE)</f>
+        <f>VLOOKUP(D171,'HHs Surveyed'!$A$1:$C$55,3,FALSE)</f>
         <v>30</v>
       </c>
       <c r="H171">
@@ -17178,7 +17166,7 @@
         <v>1060</v>
       </c>
       <c r="G172">
-        <f>VLOOKUP(D172,Sheet1!$A$1:$C$55,3,FALSE)</f>
+        <f>VLOOKUP(D172,'HHs Surveyed'!$A$1:$C$55,3,FALSE)</f>
         <v>43</v>
       </c>
       <c r="H172">
@@ -17252,7 +17240,7 @@
         <v>1164</v>
       </c>
       <c r="G173">
-        <f>VLOOKUP(D173,Sheet1!$A$1:$C$55,3,FALSE)</f>
+        <f>VLOOKUP(D173,'HHs Surveyed'!$A$1:$C$55,3,FALSE)</f>
         <v>74</v>
       </c>
       <c r="H173">
@@ -17326,7 +17314,7 @@
         <v>1164</v>
       </c>
       <c r="G174">
-        <f>VLOOKUP(D174,Sheet1!$A$1:$C$55,3,FALSE)</f>
+        <f>VLOOKUP(D174,'HHs Surveyed'!$A$1:$C$55,3,FALSE)</f>
         <v>43</v>
       </c>
       <c r="H174">
@@ -17566,8 +17554,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73F3F91E-91B1-4B10-AB66-DB0C4E3864D3}">
   <dimension ref="A1:C55"/>
   <sheetViews>
-    <sheetView topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -17581,10 +17569,10 @@
         <v>1175</v>
       </c>
       <c r="B1" t="s">
-        <v>1435</v>
+        <v>1431</v>
       </c>
       <c r="C1" t="s">
-        <v>1436</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
@@ -17647,7 +17635,7 @@
         <v>1318</v>
       </c>
       <c r="B7" t="s">
-        <v>1437</v>
+        <v>1433</v>
       </c>
       <c r="C7">
         <v>53</v>
@@ -17658,7 +17646,7 @@
         <v>1263</v>
       </c>
       <c r="B8" t="s">
-        <v>1437</v>
+        <v>1433</v>
       </c>
       <c r="C8">
         <v>66</v>
@@ -17669,7 +17657,7 @@
         <v>1304</v>
       </c>
       <c r="B9" t="s">
-        <v>1437</v>
+        <v>1433</v>
       </c>
       <c r="C9">
         <v>53</v>
@@ -17680,7 +17668,7 @@
         <v>1258</v>
       </c>
       <c r="B10" t="s">
-        <v>1437</v>
+        <v>1433</v>
       </c>
       <c r="C10">
         <v>58</v>
@@ -17691,7 +17679,7 @@
         <v>1250</v>
       </c>
       <c r="B11" t="s">
-        <v>1437</v>
+        <v>1433</v>
       </c>
       <c r="C11">
         <v>50</v>
@@ -17702,7 +17690,7 @@
         <v>1247</v>
       </c>
       <c r="B12" t="s">
-        <v>1437</v>
+        <v>1433</v>
       </c>
       <c r="C12">
         <v>56</v>
@@ -17713,7 +17701,7 @@
         <v>1271</v>
       </c>
       <c r="B13" t="s">
-        <v>1437</v>
+        <v>1433</v>
       </c>
       <c r="C13">
         <v>66</v>
@@ -17724,7 +17712,7 @@
         <v>1320</v>
       </c>
       <c r="B14" t="s">
-        <v>1437</v>
+        <v>1433</v>
       </c>
       <c r="C14">
         <v>51</v>
@@ -17735,7 +17723,7 @@
         <v>1276</v>
       </c>
       <c r="B15" t="s">
-        <v>1437</v>
+        <v>1433</v>
       </c>
       <c r="C15">
         <v>65</v>
@@ -17746,7 +17734,7 @@
         <v>1302</v>
       </c>
       <c r="B16" t="s">
-        <v>1437</v>
+        <v>1433</v>
       </c>
       <c r="C16">
         <v>58</v>
@@ -17757,7 +17745,7 @@
         <v>1303</v>
       </c>
       <c r="B17" t="s">
-        <v>1437</v>
+        <v>1433</v>
       </c>
       <c r="C17">
         <v>61</v>
@@ -17768,7 +17756,7 @@
         <v>1304</v>
       </c>
       <c r="B18" t="s">
-        <v>1437</v>
+        <v>1433</v>
       </c>
       <c r="C18">
         <v>53</v>
@@ -17779,7 +17767,7 @@
         <v>1299</v>
       </c>
       <c r="B19" t="s">
-        <v>1437</v>
+        <v>1433</v>
       </c>
       <c r="C19">
         <v>49</v>
@@ -17790,7 +17778,7 @@
         <v>1315</v>
       </c>
       <c r="B20" t="s">
-        <v>1437</v>
+        <v>1433</v>
       </c>
       <c r="C20">
         <v>81</v>
@@ -17801,7 +17789,7 @@
         <v>1275</v>
       </c>
       <c r="B21" t="s">
-        <v>1437</v>
+        <v>1433</v>
       </c>
       <c r="C21">
         <v>53</v>
@@ -17812,7 +17800,7 @@
         <v>1293</v>
       </c>
       <c r="B22" t="s">
-        <v>1437</v>
+        <v>1433</v>
       </c>
       <c r="C22">
         <v>64</v>
@@ -17823,7 +17811,7 @@
         <v>1278</v>
       </c>
       <c r="B23" t="s">
-        <v>1437</v>
+        <v>1433</v>
       </c>
       <c r="C23">
         <v>64</v>
@@ -17834,7 +17822,7 @@
         <v>1319</v>
       </c>
       <c r="B24" t="s">
-        <v>1437</v>
+        <v>1433</v>
       </c>
       <c r="C24">
         <v>29</v>
@@ -17845,7 +17833,7 @@
         <v>1294</v>
       </c>
       <c r="B25" t="s">
-        <v>1437</v>
+        <v>1433</v>
       </c>
       <c r="C25">
         <v>49</v>
@@ -17856,7 +17844,7 @@
         <v>1295</v>
       </c>
       <c r="B26" t="s">
-        <v>1437</v>
+        <v>1433</v>
       </c>
       <c r="C26">
         <v>56</v>
@@ -17867,7 +17855,7 @@
         <v>1245</v>
       </c>
       <c r="B27" t="s">
-        <v>1437</v>
+        <v>1433</v>
       </c>
       <c r="C27">
         <v>67</v>
@@ -17878,7 +17866,7 @@
         <v>1290</v>
       </c>
       <c r="B28" t="s">
-        <v>1437</v>
+        <v>1433</v>
       </c>
       <c r="C28">
         <v>48</v>
@@ -17889,7 +17877,7 @@
         <v>1288</v>
       </c>
       <c r="B29" t="s">
-        <v>1437</v>
+        <v>1433</v>
       </c>
       <c r="C29">
         <v>71</v>
@@ -17900,7 +17888,7 @@
         <v>1300</v>
       </c>
       <c r="B30" t="s">
-        <v>1437</v>
+        <v>1433</v>
       </c>
       <c r="C30">
         <v>57</v>
@@ -17911,7 +17899,7 @@
         <v>1268</v>
       </c>
       <c r="B31" t="s">
-        <v>1437</v>
+        <v>1433</v>
       </c>
       <c r="C31">
         <v>52</v>
@@ -17977,7 +17965,7 @@
         <v>1279</v>
       </c>
       <c r="B37" t="s">
-        <v>1438</v>
+        <v>1434</v>
       </c>
       <c r="C37">
         <v>64</v>
@@ -17988,7 +17976,7 @@
         <v>1284</v>
       </c>
       <c r="B38" t="s">
-        <v>1438</v>
+        <v>1434</v>
       </c>
       <c r="C38">
         <v>52</v>
@@ -17999,7 +17987,7 @@
         <v>1308</v>
       </c>
       <c r="B39" t="s">
-        <v>1438</v>
+        <v>1434</v>
       </c>
       <c r="C39">
         <v>53</v>
@@ -18010,7 +17998,7 @@
         <v>1283</v>
       </c>
       <c r="B40" t="s">
-        <v>1438</v>
+        <v>1434</v>
       </c>
       <c r="C40">
         <v>65</v>
@@ -18021,7 +18009,7 @@
         <v>1321</v>
       </c>
       <c r="B41" t="s">
-        <v>1438</v>
+        <v>1434</v>
       </c>
       <c r="C41">
         <v>42</v>
@@ -18032,7 +18020,7 @@
         <v>1322</v>
       </c>
       <c r="B42" t="s">
-        <v>1438</v>
+        <v>1434</v>
       </c>
       <c r="C42">
         <v>44</v>
@@ -18043,7 +18031,7 @@
         <v>1259</v>
       </c>
       <c r="B43" t="s">
-        <v>1438</v>
+        <v>1434</v>
       </c>
       <c r="C43">
         <v>62</v>
@@ -18054,7 +18042,7 @@
         <v>1256</v>
       </c>
       <c r="B44" t="s">
-        <v>1438</v>
+        <v>1434</v>
       </c>
       <c r="C44">
         <v>46</v>
@@ -18065,7 +18053,7 @@
         <v>1257</v>
       </c>
       <c r="B45" t="s">
-        <v>1438</v>
+        <v>1434</v>
       </c>
       <c r="C45">
         <v>81</v>
@@ -18076,7 +18064,7 @@
         <v>1253</v>
       </c>
       <c r="B46" t="s">
-        <v>1438</v>
+        <v>1434</v>
       </c>
       <c r="C46">
         <v>65</v>
@@ -18087,7 +18075,7 @@
         <v>1285</v>
       </c>
       <c r="B47" t="s">
-        <v>1438</v>
+        <v>1434</v>
       </c>
       <c r="C47">
         <v>52</v>
@@ -18098,7 +18086,7 @@
         <v>1246</v>
       </c>
       <c r="B48" t="s">
-        <v>1438</v>
+        <v>1434</v>
       </c>
       <c r="C48">
         <v>44</v>
@@ -18109,7 +18097,7 @@
         <v>1242</v>
       </c>
       <c r="B49" t="s">
-        <v>1438</v>
+        <v>1434</v>
       </c>
       <c r="C49">
         <v>48</v>
@@ -18120,7 +18108,7 @@
         <v>1314</v>
       </c>
       <c r="B50" t="s">
-        <v>1438</v>
+        <v>1434</v>
       </c>
       <c r="C50">
         <v>65</v>
@@ -18131,7 +18119,7 @@
         <v>1244</v>
       </c>
       <c r="B51" t="s">
-        <v>1439</v>
+        <v>1435</v>
       </c>
       <c r="C51">
         <v>30</v>
@@ -18142,7 +18130,7 @@
         <v>1267</v>
       </c>
       <c r="B52" t="s">
-        <v>1438</v>
+        <v>1434</v>
       </c>
       <c r="C52">
         <v>30</v>
@@ -18153,7 +18141,7 @@
         <v>1269</v>
       </c>
       <c r="B53" t="s">
-        <v>1438</v>
+        <v>1434</v>
       </c>
       <c r="C53">
         <v>43</v>
@@ -18164,7 +18152,7 @@
         <v>1298</v>
       </c>
       <c r="B54" t="s">
-        <v>1440</v>
+        <v>1436</v>
       </c>
       <c r="C54">
         <v>74</v>
@@ -18175,7 +18163,7 @@
         <v>1307</v>
       </c>
       <c r="B55" t="s">
-        <v>1440</v>
+        <v>1436</v>
       </c>
       <c r="C55">
         <v>43</v>
@@ -20183,10 +20171,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38292AAD-3B80-4367-9101-0F4D334D2720}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A6"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -20227,22 +20215,6 @@
         <v>1428</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
-        <v>1429</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>1430</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
-        <v>1431</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>1432</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -20252,8 +20224,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F363BAD4-0D90-4876-A2C4-D3216A72F123}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -20266,10 +20238,10 @@
         <v>1421</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1433</v>
+        <v>1429</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>1434</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
@@ -20280,7 +20252,7 @@
         <v>0.83</v>
       </c>
       <c r="C2" s="9">
-        <v>0.95</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -20291,18 +20263,18 @@
         <v>0.49</v>
       </c>
       <c r="C3" s="9">
-        <v>0.56999999999999995</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>1431</v>
+        <v>1427</v>
       </c>
       <c r="B4" s="9">
         <v>0.65</v>
       </c>
       <c r="C4" s="9">
-        <v>0.78</v>
+        <v>0.72</v>
       </c>
     </row>
   </sheetData>
@@ -20326,13 +20298,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>1443</v>
+        <v>1439</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1412</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>1442</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
@@ -20524,7 +20496,7 @@
         <v>1412</v>
       </c>
       <c r="C1" t="s">
-        <v>1444</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
@@ -20701,7 +20673,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE0E7051-CDA0-49E1-974E-3429B8A236F7}">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
@@ -20712,7 +20684,7 @@
         <v>1412</v>
       </c>
       <c r="C1" t="s">
-        <v>1445</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
